--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panjabivishal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panjabivishal/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE6728B-61E9-C143-A1BA-8CAA89B93F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B224C4-EFDF-AB43-8BC1-B36E6622D70D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -152,25 +152,34 @@
     <t>3.3.1</t>
   </si>
   <si>
-    <t>Literature Review (Assigment 1)</t>
-  </si>
-  <si>
-    <t>Finalise Research Topic</t>
-  </si>
-  <si>
     <t>Vishal R</t>
-  </si>
-  <si>
-    <t>Find Relevant Data Set</t>
-  </si>
-  <si>
-    <t>Compare 15 Acadamic Journals</t>
   </si>
   <si>
     <t>Data Science Project Development</t>
   </si>
   <si>
     <t>Ram Vishal Gobind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literature review of 15 Academic Journals </t>
+  </si>
+  <si>
+    <t>Product Prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literature Review </t>
+  </si>
+  <si>
+    <t>Research of data sets available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result Deliverables </t>
+  </si>
+  <si>
+    <t>Finalise Research Topic (Determine the problem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Report </t>
   </si>
 </sst>
 </file>
@@ -1276,6 +1285,65 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1286,65 +1354,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="23" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2523,15 +2532,15 @@
   </sheetPr>
   <dimension ref="A1:BQ38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
@@ -2615,42 +2624,42 @@
     </row>
     <row r="2" spans="1:69" ht="42" customHeight="1">
       <c r="A2" s="12"/>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="135" t="s">
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
       <c r="AF2" s="14"/>
       <c r="AG2" s="14"/>
       <c r="AH2" s="14"/>
@@ -2763,41 +2772,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="139" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="136" t="s">
+      <c r="I4" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="138" t="s">
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="137"/>
-      <c r="V4" s="137"/>
-      <c r="W4" s="137"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="137"/>
-      <c r="Z4" s="137"/>
-      <c r="AA4" s="137"/>
-      <c r="AB4" s="137"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
       <c r="AC4" s="24"/>
       <c r="AD4" s="22"/>
       <c r="AE4" s="22"/>
@@ -2842,18 +2851,18 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="115" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="116"/>
-      <c r="D5" s="115" t="s">
-        <v>46</v>
+      <c r="D5" s="140" t="s">
+        <v>42</v>
       </c>
       <c r="E5" s="116"/>
       <c r="F5" s="116"/>
       <c r="G5" s="116"/>
       <c r="H5" s="23"/>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="115" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="116"/>
@@ -2862,7 +2871,7 @@
       <c r="M5" s="116"/>
       <c r="N5" s="116"/>
       <c r="O5" s="116"/>
-      <c r="P5" s="134">
+      <c r="P5" s="117">
         <v>43171</v>
       </c>
       <c r="Q5" s="116"/>
@@ -3063,201 +3072,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="E8" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="113" t="s">
+      <c r="H8" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="121" t="s">
+      <c r="I8" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="129" t="s">
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="122"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="122"/>
-      <c r="AE8" s="122"/>
-      <c r="AF8" s="122"/>
-      <c r="AG8" s="122"/>
-      <c r="AH8" s="122"/>
-      <c r="AI8" s="122"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
-      <c r="AL8" s="123"/>
-      <c r="AM8" s="128" t="s">
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="127"/>
+      <c r="AC8" s="127"/>
+      <c r="AD8" s="127"/>
+      <c r="AE8" s="127"/>
+      <c r="AF8" s="127"/>
+      <c r="AG8" s="127"/>
+      <c r="AH8" s="127"/>
+      <c r="AI8" s="127"/>
+      <c r="AJ8" s="127"/>
+      <c r="AK8" s="127"/>
+      <c r="AL8" s="131"/>
+      <c r="AM8" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="AN8" s="122"/>
-      <c r="AO8" s="122"/>
-      <c r="AP8" s="122"/>
-      <c r="AQ8" s="122"/>
-      <c r="AR8" s="122"/>
-      <c r="AS8" s="122"/>
-      <c r="AT8" s="122"/>
-      <c r="AU8" s="122"/>
-      <c r="AV8" s="122"/>
-      <c r="AW8" s="122"/>
-      <c r="AX8" s="122"/>
-      <c r="AY8" s="122"/>
-      <c r="AZ8" s="122"/>
-      <c r="BA8" s="123"/>
-      <c r="BB8" s="125" t="s">
+      <c r="AN8" s="127"/>
+      <c r="AO8" s="127"/>
+      <c r="AP8" s="127"/>
+      <c r="AQ8" s="127"/>
+      <c r="AR8" s="127"/>
+      <c r="AS8" s="127"/>
+      <c r="AT8" s="127"/>
+      <c r="AU8" s="127"/>
+      <c r="AV8" s="127"/>
+      <c r="AW8" s="127"/>
+      <c r="AX8" s="127"/>
+      <c r="AY8" s="127"/>
+      <c r="AZ8" s="127"/>
+      <c r="BA8" s="131"/>
+      <c r="BB8" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="BC8" s="122"/>
-      <c r="BD8" s="122"/>
-      <c r="BE8" s="122"/>
-      <c r="BF8" s="122"/>
-      <c r="BG8" s="122"/>
-      <c r="BH8" s="122"/>
-      <c r="BI8" s="122"/>
-      <c r="BJ8" s="122"/>
-      <c r="BK8" s="122"/>
-      <c r="BL8" s="122"/>
-      <c r="BM8" s="122"/>
-      <c r="BN8" s="122"/>
-      <c r="BO8" s="122"/>
-      <c r="BP8" s="126"/>
+      <c r="BC8" s="127"/>
+      <c r="BD8" s="127"/>
+      <c r="BE8" s="127"/>
+      <c r="BF8" s="127"/>
+      <c r="BG8" s="127"/>
+      <c r="BH8" s="127"/>
+      <c r="BI8" s="127"/>
+      <c r="BJ8" s="127"/>
+      <c r="BK8" s="127"/>
+      <c r="BL8" s="127"/>
+      <c r="BM8" s="127"/>
+      <c r="BN8" s="127"/>
+      <c r="BO8" s="127"/>
+      <c r="BP8" s="128"/>
       <c r="BQ8" s="33"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="34"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="118" t="s">
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="118" t="s">
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="118" t="s">
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="119"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="130" t="s">
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="Y9" s="119"/>
-      <c r="Z9" s="119"/>
-      <c r="AA9" s="119"/>
-      <c r="AB9" s="120"/>
-      <c r="AC9" s="130" t="s">
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="125"/>
+      <c r="AC9" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="119"/>
-      <c r="AF9" s="119"/>
-      <c r="AG9" s="120"/>
-      <c r="AH9" s="130" t="s">
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="124"/>
+      <c r="AF9" s="124"/>
+      <c r="AG9" s="125"/>
+      <c r="AH9" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="AI9" s="119"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="119"/>
-      <c r="AL9" s="120"/>
-      <c r="AM9" s="127" t="s">
+      <c r="AI9" s="124"/>
+      <c r="AJ9" s="124"/>
+      <c r="AK9" s="124"/>
+      <c r="AL9" s="125"/>
+      <c r="AM9" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="AN9" s="119"/>
-      <c r="AO9" s="119"/>
-      <c r="AP9" s="119"/>
-      <c r="AQ9" s="120"/>
-      <c r="AR9" s="127" t="s">
+      <c r="AN9" s="124"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="124"/>
+      <c r="AQ9" s="125"/>
+      <c r="AR9" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="AS9" s="119"/>
-      <c r="AT9" s="119"/>
-      <c r="AU9" s="119"/>
-      <c r="AV9" s="120"/>
-      <c r="AW9" s="127" t="s">
+      <c r="AS9" s="124"/>
+      <c r="AT9" s="124"/>
+      <c r="AU9" s="124"/>
+      <c r="AV9" s="125"/>
+      <c r="AW9" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="AX9" s="119"/>
-      <c r="AY9" s="119"/>
-      <c r="AZ9" s="119"/>
-      <c r="BA9" s="120"/>
-      <c r="BB9" s="124" t="s">
+      <c r="AX9" s="124"/>
+      <c r="AY9" s="124"/>
+      <c r="AZ9" s="124"/>
+      <c r="BA9" s="125"/>
+      <c r="BB9" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="BC9" s="119"/>
-      <c r="BD9" s="119"/>
-      <c r="BE9" s="119"/>
-      <c r="BF9" s="120"/>
-      <c r="BG9" s="124" t="s">
+      <c r="BC9" s="124"/>
+      <c r="BD9" s="124"/>
+      <c r="BE9" s="124"/>
+      <c r="BF9" s="125"/>
+      <c r="BG9" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="BH9" s="119"/>
-      <c r="BI9" s="119"/>
-      <c r="BJ9" s="119"/>
-      <c r="BK9" s="120"/>
-      <c r="BL9" s="124" t="s">
+      <c r="BH9" s="124"/>
+      <c r="BI9" s="124"/>
+      <c r="BJ9" s="124"/>
+      <c r="BK9" s="125"/>
+      <c r="BL9" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="BM9" s="119"/>
-      <c r="BN9" s="119"/>
-      <c r="BO9" s="119"/>
-      <c r="BP9" s="120"/>
+      <c r="BM9" s="124"/>
+      <c r="BN9" s="124"/>
+      <c r="BO9" s="124"/>
+      <c r="BP9" s="125"/>
       <c r="BQ9" s="35"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="36"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="114"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="139"/>
       <c r="I10" s="37" t="s">
         <v>31</v>
       </c>
@@ -3446,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
@@ -3521,10 +3530,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="51">
         <v>44130</v>
@@ -3533,7 +3542,7 @@
         <v>44138</v>
       </c>
       <c r="G12" s="52">
-        <f t="shared" ref="G12:G18" si="0">DAYS360(E12,F12)</f>
+        <f t="shared" ref="G12:G14" si="0">DAYS360(E12,F12)</f>
         <v>7</v>
       </c>
       <c r="H12" s="53">
@@ -3607,10 +3616,10 @@
         <v>36</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="51">
         <v>44130</v>
@@ -3693,10 +3702,10 @@
         <v>1.2</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="51">
         <v>44130</v>
@@ -3780,7 +3789,7 @@
       </c>
       <c r="C15" s="65"/>
       <c r="D15" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="66"/>
       <c r="F15" s="66"/>
@@ -3857,7 +3866,7 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
@@ -3934,7 +3943,7 @@
       </c>
       <c r="C17" s="65"/>
       <c r="D17" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="66"/>
       <c r="F17" s="66"/>
@@ -4011,7 +4020,7 @@
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="82"/>
       <c r="F18" s="82"/>
@@ -4086,7 +4095,9 @@
       <c r="B19" s="42">
         <v>2</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="43" t="s">
+        <v>44</v>
+      </c>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
@@ -4161,7 +4172,7 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
@@ -4238,7 +4249,7 @@
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="66"/>
       <c r="F21" s="66"/>
@@ -4315,7 +4326,7 @@
       </c>
       <c r="C22" s="65"/>
       <c r="D22" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
@@ -4394,7 +4405,7 @@
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23" s="66"/>
       <c r="F23" s="66"/>
@@ -4471,7 +4482,9 @@
       <c r="B24" s="97">
         <v>3</v>
       </c>
-      <c r="C24" s="98"/>
+      <c r="C24" s="98" t="s">
+        <v>49</v>
+      </c>
       <c r="D24" s="99"/>
       <c r="E24" s="99"/>
       <c r="F24" s="99"/>
@@ -4545,8 +4558,8 @@
         <v>3.1</v>
       </c>
       <c r="C25" s="50"/>
-      <c r="D25" s="140" t="s">
-        <v>42</v>
+      <c r="D25" s="111" t="s">
+        <v>40</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -4624,8 +4637,8 @@
         <v>3.2</v>
       </c>
       <c r="C26" s="65"/>
-      <c r="D26" s="140" t="s">
-        <v>42</v>
+      <c r="D26" s="111" t="s">
+        <v>40</v>
       </c>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
@@ -4703,8 +4716,8 @@
         <v>37</v>
       </c>
       <c r="C27" s="65"/>
-      <c r="D27" s="140" t="s">
-        <v>42</v>
+      <c r="D27" s="111" t="s">
+        <v>40</v>
       </c>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
@@ -4782,8 +4795,8 @@
         <v>38</v>
       </c>
       <c r="C28" s="65"/>
-      <c r="D28" s="140" t="s">
-        <v>42</v>
+      <c r="D28" s="111" t="s">
+        <v>40</v>
       </c>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
@@ -4861,8 +4874,8 @@
         <v>3.3</v>
       </c>
       <c r="C29" s="65"/>
-      <c r="D29" s="140" t="s">
-        <v>42</v>
+      <c r="D29" s="111" t="s">
+        <v>40</v>
       </c>
       <c r="E29" s="66"/>
       <c r="F29" s="66"/>
@@ -4940,8 +4953,8 @@
         <v>39</v>
       </c>
       <c r="C30" s="65"/>
-      <c r="D30" s="140" t="s">
-        <v>42</v>
+      <c r="D30" s="111" t="s">
+        <v>40</v>
       </c>
       <c r="E30" s="66"/>
       <c r="F30" s="66"/>
@@ -5018,7 +5031,9 @@
       <c r="B31" s="97">
         <v>4</v>
       </c>
-      <c r="C31" s="98"/>
+      <c r="C31" s="98" t="s">
+        <v>47</v>
+      </c>
       <c r="D31" s="99"/>
       <c r="E31" s="99"/>
       <c r="F31" s="99"/>
@@ -5092,8 +5107,8 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C32" s="50"/>
-      <c r="D32" s="140" t="s">
-        <v>42</v>
+      <c r="D32" s="111" t="s">
+        <v>40</v>
       </c>
       <c r="E32" s="51"/>
       <c r="F32" s="51"/>
@@ -5171,8 +5186,8 @@
         <v>4.2</v>
       </c>
       <c r="C33" s="65"/>
-      <c r="D33" s="140" t="s">
-        <v>42</v>
+      <c r="D33" s="111" t="s">
+        <v>40</v>
       </c>
       <c r="E33" s="66"/>
       <c r="F33" s="66"/>
@@ -5250,8 +5265,8 @@
         <v>4.3</v>
       </c>
       <c r="C34" s="65"/>
-      <c r="D34" s="140" t="s">
-        <v>42</v>
+      <c r="D34" s="111" t="s">
+        <v>40</v>
       </c>
       <c r="E34" s="66"/>
       <c r="F34" s="66"/>
@@ -5329,8 +5344,8 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C35" s="65"/>
-      <c r="D35" s="140" t="s">
-        <v>42</v>
+      <c r="D35" s="111" t="s">
+        <v>40</v>
       </c>
       <c r="E35" s="66"/>
       <c r="F35" s="66"/>
@@ -5617,6 +5632,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="X8:AL8"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="BB9:BF9"/>
+    <mergeCell ref="BB8:BP8"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AM8:BA8"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I5:O5"/>
@@ -5626,31 +5666,6 @@
     <mergeCell ref="P4:AB4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BB8:BP8"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AM8:BA8"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="X8:AL8"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
